--- a/Data/PTMViz Metadata.xlsx
+++ b/Data/PTMViz Metadata.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e04f17d41b7a4bee/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3060612\Documents\GitHub\PTMViz\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{5AACE562-57B7-4054-99D4-00F0DAD095A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5EAF7093-43FC-49E3-8AFB-5C6872A3DE7C}"/>
   <bookViews>
-    <workbookView xWindow="2588" yWindow="4065" windowWidth="18225" windowHeight="11422" xr2:uid="{2C68D7E0-AC48-42A4-8EBC-764B5A5433F0}"/>
+    <workbookView xWindow="2595" yWindow="4065" windowWidth="18225" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="67">
   <si>
     <t>Proteins:</t>
   </si>
@@ -42,9 +40,6 @@
     <t>Nucleus Accumbens</t>
   </si>
   <si>
-    <t>Treatement</t>
-  </si>
-  <si>
     <t>Control</t>
   </si>
   <si>
@@ -223,12 +218,27 @@
   </si>
   <si>
     <t>MDA6</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Treatment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,811 +592,967 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A924EE5B-B37E-4F3E-906B-6B82FB7FD6ED}">
-  <dimension ref="A2:I56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1328125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.53125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26">
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" t="s">
+    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" t="s">
+    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30">
         <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31">
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32">
         <v>6</v>
       </c>
       <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
         <v>24</v>
       </c>
-      <c r="I32" t="s">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" t="s">
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" t="s">
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G36">
         <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G37">
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38">
         <v>6</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
         <v>24</v>
       </c>
-      <c r="I39" t="s">
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40" t="s">
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
         <v>24</v>
       </c>
-      <c r="I40" t="s">
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41" t="s">
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
         <v>24</v>
-      </c>
-      <c r="I41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F42" t="s">
-        <v>25</v>
       </c>
       <c r="G42">
         <v>4</v>
       </c>
       <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
         <v>24</v>
-      </c>
-      <c r="I42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F43" t="s">
-        <v>25</v>
       </c>
       <c r="G43">
         <v>5</v>
       </c>
       <c r="H43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
         <v>24</v>
-      </c>
-      <c r="I43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F44" t="s">
-        <v>25</v>
       </c>
       <c r="G44">
         <v>6</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" t="s">
+    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" t="s">
+    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47">
-        <v>3</v>
-      </c>
-      <c r="H47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G48">
         <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G49">
         <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50">
         <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I51" t="s">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" t="s">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.45">
-      <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53">
-        <v>3</v>
-      </c>
-      <c r="H53" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G54">
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G55">
         <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G56">
         <v>6</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Data/PTMViz Metadata.xlsx
+++ b/Data/PTMViz Metadata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3060612\Documents\GitHub\PTMViz\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmcha\OneDrive\Documents\GitHub\PTMViz\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{61029946-7DF0-4946-95F1-EB967247B922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="4065" windowWidth="18225" windowHeight="11415"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="18224" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -238,7 +231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,22 +585,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -615,7 +608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -653,7 +646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -691,7 +684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -729,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -767,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -805,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -843,7 +836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -881,7 +874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
         <v>9</v>
       </c>
@@ -907,7 +900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
         <v>9</v>
       </c>
@@ -933,7 +926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
         <v>9</v>
       </c>
@@ -959,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
         <v>9</v>
       </c>
@@ -985,7 +978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +1004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F15" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1051,7 +1044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F21" t="s">
         <v>21</v>
       </c>
@@ -1065,7 +1058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F22" t="s">
         <v>21</v>
       </c>
@@ -1079,7 +1072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F23" t="s">
         <v>21</v>
       </c>
@@ -1093,7 +1086,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F24" t="s">
         <v>21</v>
       </c>
@@ -1107,7 +1100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F25" t="s">
         <v>21</v>
       </c>
@@ -1121,7 +1114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F26" t="s">
         <v>21</v>
       </c>
@@ -1135,7 +1128,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F27" t="s">
         <v>21</v>
       </c>
@@ -1149,7 +1142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F28" t="s">
         <v>21</v>
       </c>
@@ -1163,7 +1156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F29" t="s">
         <v>21</v>
       </c>
@@ -1177,7 +1170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F30" t="s">
         <v>21</v>
       </c>
@@ -1191,7 +1184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F31" t="s">
         <v>21</v>
       </c>
@@ -1205,7 +1198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F32" t="s">
         <v>21</v>
       </c>
@@ -1219,7 +1212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F33" t="s">
         <v>24</v>
       </c>
@@ -1233,7 +1226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F34" t="s">
         <v>24</v>
       </c>
@@ -1247,7 +1240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F35" t="s">
         <v>24</v>
       </c>
@@ -1261,7 +1254,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F36" t="s">
         <v>24</v>
       </c>
@@ -1275,7 +1268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F37" t="s">
         <v>24</v>
       </c>
@@ -1289,7 +1282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F38" t="s">
         <v>24</v>
       </c>
@@ -1303,7 +1296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F39" t="s">
         <v>24</v>
       </c>
@@ -1317,7 +1310,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F40" t="s">
         <v>24</v>
       </c>
@@ -1331,7 +1324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F41" t="s">
         <v>24</v>
       </c>
@@ -1345,7 +1338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F42" t="s">
         <v>24</v>
       </c>
@@ -1359,7 +1352,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F43" t="s">
         <v>24</v>
       </c>
@@ -1373,7 +1366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F44" t="s">
         <v>24</v>
       </c>
@@ -1387,7 +1380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F45" t="s">
         <v>25</v>
       </c>
@@ -1401,7 +1394,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F46" t="s">
         <v>25</v>
       </c>
@@ -1415,7 +1408,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F47" t="s">
         <v>25</v>
       </c>
@@ -1429,7 +1422,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F48" t="s">
         <v>25</v>
       </c>
@@ -1443,7 +1436,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F49" t="s">
         <v>25</v>
       </c>
@@ -1457,7 +1450,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F50" t="s">
         <v>25</v>
       </c>
@@ -1471,7 +1464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F51" t="s">
         <v>25</v>
       </c>
@@ -1485,7 +1478,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F52" t="s">
         <v>25</v>
       </c>
@@ -1499,7 +1492,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F53" t="s">
         <v>25</v>
       </c>
@@ -1513,7 +1506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F54" t="s">
         <v>25</v>
       </c>
@@ -1527,7 +1520,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F55" t="s">
         <v>25</v>
       </c>
@@ -1541,7 +1534,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F56" t="s">
         <v>25</v>
       </c>

--- a/Data/PTMViz Metadata.xlsx
+++ b/Data/PTMViz Metadata.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmcha\OneDrive\Documents\GitHub\PTMViz\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Chappell\Documents\GitHub\PTMViz\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{61029946-7DF0-4946-95F1-EB967247B922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DB722C-82F0-44BD-8AB4-6B2A92F9CD08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="18224" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="67">
   <si>
     <t>Proteins:</t>
   </si>
@@ -588,19 +589,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1328125" customWidth="1"/>
-    <col min="3" max="3" width="18.73046875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -608,7 +609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -646,7 +647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -684,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -722,7 +723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -760,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -798,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -836,7 +837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -874,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>9</v>
       </c>
@@ -900,7 +901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>9</v>
       </c>
@@ -926,7 +927,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
@@ -952,7 +965,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
@@ -978,7 +1003,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
@@ -1004,7 +1041,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1079,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1044,7 +1121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>21</v>
       </c>
@@ -1058,7 +1135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>21</v>
       </c>
@@ -1072,7 +1149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>21</v>
       </c>
@@ -1086,7 +1163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>21</v>
       </c>
@@ -1100,7 +1177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>21</v>
       </c>
@@ -1114,7 +1191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>21</v>
       </c>
@@ -1128,7 +1205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>21</v>
       </c>
@@ -1142,7 +1219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>21</v>
       </c>
@@ -1156,7 +1233,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>21</v>
       </c>
@@ -1170,7 +1247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>21</v>
       </c>
@@ -1198,7 +1275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>24</v>
       </c>
@@ -1226,7 +1303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>24</v>
       </c>
@@ -1240,7 +1317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>24</v>
       </c>
@@ -1254,7 +1331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>24</v>
       </c>
@@ -1268,7 +1345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>24</v>
       </c>
@@ -1282,7 +1359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>24</v>
       </c>
@@ -1296,7 +1373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>24</v>
       </c>
@@ -1310,7 +1387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>24</v>
       </c>
@@ -1324,7 +1401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>24</v>
       </c>
@@ -1338,7 +1415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>24</v>
       </c>
@@ -1352,7 +1429,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>24</v>
       </c>
@@ -1366,7 +1443,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>24</v>
       </c>
@@ -1380,7 +1457,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>25</v>
       </c>
@@ -1394,7 +1471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>25</v>
       </c>
@@ -1408,7 +1485,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>25</v>
       </c>
@@ -1422,7 +1499,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1513,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>25</v>
       </c>
@@ -1450,7 +1527,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
         <v>25</v>
       </c>
@@ -1464,7 +1541,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
         <v>25</v>
       </c>
@@ -1478,7 +1555,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>25</v>
       </c>
@@ -1492,7 +1569,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>25</v>
       </c>
@@ -1506,7 +1583,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>25</v>
       </c>
@@ -1520,7 +1597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>25</v>
       </c>
@@ -1534,7 +1611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>25</v>
       </c>

--- a/Data/PTMViz Metadata.xlsx
+++ b/Data/PTMViz Metadata.xlsx
@@ -8,25 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Chappell\Documents\GitHub\PTMViz\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DB722C-82F0-44BD-8AB4-6B2A92F9CD08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48829EC5-3AC1-40C3-98B3-431AD4168168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="83">
   <si>
     <t>Proteins:</t>
   </si>
@@ -227,13 +234,61 @@
   </si>
   <si>
     <t>Treatment</t>
+  </si>
+  <si>
+    <t>Nuc</t>
+  </si>
+  <si>
+    <t>Nuc_T_1</t>
+  </si>
+  <si>
+    <t>Nuc_T_2</t>
+  </si>
+  <si>
+    <t>Nuc_T_3</t>
+  </si>
+  <si>
+    <t>Nuc_1</t>
+  </si>
+  <si>
+    <t>Nuc_2</t>
+  </si>
+  <si>
+    <t>Nuc_3</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E14-3F</t>
+  </si>
+  <si>
+    <t>KO-B2</t>
+  </si>
+  <si>
+    <t>KO-B14</t>
+  </si>
+  <si>
+    <t>C2024A</t>
+  </si>
+  <si>
+    <t>TKO-EV</t>
+  </si>
+  <si>
+    <t>TKO-3A</t>
+  </si>
+  <si>
+    <t>TKO-3B</t>
+  </si>
+  <si>
+    <t>J1-DKO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +303,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,9 +331,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N56"/>
+  <dimension ref="A2:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:N15"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -682,7 +744,7 @@
         <v>64</v>
       </c>
       <c r="N4" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -711,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -720,7 +782,7 @@
         <v>64</v>
       </c>
       <c r="N5" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -749,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -758,7 +820,7 @@
         <v>64</v>
       </c>
       <c r="N6" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -787,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -796,7 +858,7 @@
         <v>65</v>
       </c>
       <c r="N7" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -825,7 +887,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -834,7 +896,7 @@
         <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -863,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -872,7 +934,7 @@
         <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1093,7 +1155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -1107,7 +1169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1121,7 +1183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>21</v>
       </c>
@@ -1134,8 +1196,17 @@
       <c r="I21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>21</v>
       </c>
@@ -1148,8 +1219,17 @@
       <c r="I22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>21</v>
       </c>
@@ -1162,8 +1242,17 @@
       <c r="I23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>21</v>
       </c>
@@ -1176,8 +1265,17 @@
       <c r="I24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>21</v>
       </c>
@@ -1190,8 +1288,17 @@
       <c r="I25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>21</v>
       </c>
@@ -1204,8 +1311,17 @@
       <c r="I26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>21</v>
       </c>
@@ -1218,8 +1334,17 @@
       <c r="I27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>21</v>
       </c>
@@ -1232,8 +1357,17 @@
       <c r="I28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>21</v>
       </c>
@@ -1246,8 +1380,17 @@
       <c r="I29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>21</v>
       </c>
@@ -1261,7 +1404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>21</v>
       </c>
@@ -1275,7 +1418,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>21</v>
       </c>

--- a/Data/PTMViz Metadata.xlsx
+++ b/Data/PTMViz Metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Chappell\Documents\GitHub\PTMViz\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48829EC5-3AC1-40C3-98B3-431AD4168168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01641738-4D37-4325-8494-225C7AE18747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -652,7 +653,7 @@
   <dimension ref="A2:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="N15" sqref="K4:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/PTMViz Metadata.xlsx
+++ b/Data/PTMViz Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Chappell\Documents\GitHub\PTMViz\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06A1CBB-E4C5-4BF2-BE28-1FC7681533B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5079E5F-8496-48B8-A714-0F66DB02A21D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="570" windowWidth="13905" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:I30"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
